--- a/covid/latest/alburez_budget_20200602.xlsx
+++ b/covid/latest/alburez_budget_20200602.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Position</t>
   </si>
@@ -64,6 +64,9 @@
 1. Methodological training. Training needs: mathematical demography, modelling excess mortality, analysing micro-level survey health data (PhD student and research assistant, travel and registration, approx EUR 4000)
 2. Workshops and conferences to share preliminary results (PI and PhD student, travel and registration contingent on travel restrictions,  approx EUR 2500)
 3. Research visit to the Demography Unit of Stockholm University (Sweden) to work on micro-level data (PI, travel and accommodation costs, approx EUR 2500)</t>
+  </si>
+  <si>
+    <t>(1) Methodological training for RA, (2) workshops and conferences for PI and RA and (3) research visit to Stockholm University for PI.</t>
   </si>
 </sst>
 </file>
@@ -433,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +445,7 @@
     <col min="1" max="1" width="31.5546875" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -504,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -515,7 +518,9 @@
         <f>4000+2500+2500</f>
         <v>9000</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
